--- a/VT_ELAND_ALL_V02.xlsx
+++ b/VT_ELAND_ALL_V02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5AE676-5500-4CCE-8AA8-3A4392C4C850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26E2A42-3B2D-4B2A-91EC-577E4FA2F47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -1215,7 +1215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1359,6 +1359,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1416,7 +1424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1483,43 +1491,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1693,86 +1664,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1907,6 +1798,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1914,7 +1867,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1934,190 +1887,174 @@
     <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2126,10 +2063,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2141,11 +2078,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3288,16 +3223,16 @@
       <c r="B2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
@@ -3545,7 +3480,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,7 +3495,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I13"/>
+      <selection activeCell="C8" sqref="C8:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3593,303 +3528,309 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="33"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="57" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="59" t="s">
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="34"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="68"/>
+      <c r="E8" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="68"/>
+      <c r="I8" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="34"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="77"/>
+      <c r="I9" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="34"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="68"/>
+      <c r="I10" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="61" t="s">
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="H11" s="77"/>
+      <c r="I11" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64" t="s">
+      <c r="J11" s="77"/>
+      <c r="K11" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="13" t="s">
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="68"/>
+      <c r="E12" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="68"/>
+      <c r="I12" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="34"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="103"/>
+      <c r="E13" s="103" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="103"/>
+      <c r="I13" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="113"/>
+      <c r="E18" s="107"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="116"/>
+      <c r="E19" s="110"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="115"/>
+      <c r="E20" s="109"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="116"/>
+      <c r="E21" s="110"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="115"/>
+      <c r="E22" s="109"/>
     </row>
     <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="100" t="s">
+      <c r="C23" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="114"/>
+      <c r="E23" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3910,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3921,6 +3862,7 @@
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
@@ -3934,466 +3876,466 @@
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="33"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="41" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="43" t="s">
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="34"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="34"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="34"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="34"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="34"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="34"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="51" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="74" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74" t="s">
+      <c r="D15" s="68"/>
+      <c r="E15" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="74" t="s">
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="74" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="74" t="s">
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="34"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="74" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74" t="s">
+      <c r="D19" s="89"/>
+      <c r="E19" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="23" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
     </row>
     <row r="24" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="119"/>
+      <c r="E24" s="113"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="122"/>
+      <c r="E25" s="116"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="120"/>
+      <c r="E26" s="114"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="121" t="s">
+      <c r="D27" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="121"/>
+      <c r="E27" s="115"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="120"/>
+      <c r="E28" s="114"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="121" t="s">
+      <c r="D29" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="121"/>
+      <c r="E29" s="115"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="120"/>
+      <c r="E30" s="114"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="98" t="s">
+      <c r="C31" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="121" t="s">
+      <c r="D31" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="121"/>
+      <c r="E31" s="115"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="120" t="s">
+      <c r="D32" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="120"/>
+      <c r="E32" s="114"/>
     </row>
     <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="117" t="s">
+      <c r="D33" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="117"/>
+      <c r="E33" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4419,7 +4361,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4443,146 +4385,146 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="65" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
+      <c r="B9" s="18"/>
+      <c r="C9" s="44" t="str">
         <f>FI_Process!E9</f>
         <v>IMP_OIL</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="68" t="str">
         <f>FI_Process!F9</f>
         <v>Import of Fuel Oil</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="68" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="73">
+      <c r="F9" s="68"/>
+      <c r="G9" s="45">
         <v>30</v>
       </c>
-      <c r="H9" s="34"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="103" t="str">
+      <c r="B10" s="18"/>
+      <c r="C10" s="64" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="104" t="str">
+      <c r="D10" s="77" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="104" t="str">
+      <c r="E10" s="77" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105">
+      <c r="F10" s="77"/>
+      <c r="G10" s="65">
         <v>20</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="106" t="str">
+      <c r="B11" s="18"/>
+      <c r="C11" s="79" t="str">
         <f>FI_Process!E11</f>
         <v>MIN_WIND_ON</v>
       </c>
-      <c r="D11" s="107" t="str">
+      <c r="D11" s="80" t="str">
         <f>FI_Process!F11</f>
         <v>Supply Wind Onshore</v>
       </c>
-      <c r="E11" s="107" t="str">
+      <c r="E11" s="80" t="str">
         <f>FI_Comm!E10</f>
         <v>WIND_ON</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108">
+      <c r="F11" s="80"/>
+      <c r="G11" s="96">
         <v>1E-3</v>
       </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4595,8 +4537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4630,105 +4572,105 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="33"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="65" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="34"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="34"/>
+      <c r="M6" s="23"/>
       <c r="O6" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="M7" s="34"/>
+      <c r="M7" s="23"/>
       <c r="O7" s="10" t="s">
         <v>129</v>
       </c>
@@ -4737,183 +4679,183 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="78" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="O8" s="84" t="s">
+      <c r="M8" s="23"/>
+      <c r="O8" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="P8" s="84" t="s">
+      <c r="P8" s="52" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
+      <c r="B9" s="18"/>
+      <c r="C9" s="44" t="str">
         <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="68" t="str">
         <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="68" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="68" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="68">
         <v>4</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="68">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="68">
         <v>0.4</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="68">
         <v>0.8</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="68">
         <v>1</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="45">
         <v>1</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="O9" s="83">
+      <c r="M9" s="23"/>
+      <c r="O9" s="51">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="83">
+      <c r="P9" s="51">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="103" t="str">
+      <c r="B10" s="18"/>
+      <c r="C10" s="64" t="str">
         <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="104" t="str">
+      <c r="D10" s="77" t="str">
         <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="104" t="str">
+      <c r="E10" s="77" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="104" t="str">
+      <c r="F10" s="77" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="104">
+      <c r="G10" s="77">
         <v>2</v>
       </c>
-      <c r="H10" s="104">
+      <c r="H10" s="77">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="77">
         <v>0.6</v>
       </c>
-      <c r="J10" s="104">
+      <c r="J10" s="77">
         <v>0.5</v>
       </c>
-      <c r="K10" s="104">
+      <c r="K10" s="77">
         <v>1</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="65">
         <v>1</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="O10" s="96">
+      <c r="M10" s="23"/>
+      <c r="O10" s="57">
         <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="96">
+      <c r="P10" s="57">
         <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="106" t="str">
+      <c r="B11" s="18"/>
+      <c r="C11" s="79" t="str">
         <f>FI_Process!E15</f>
         <v>EX_PP_WIND</v>
       </c>
-      <c r="D11" s="107" t="str">
+      <c r="D11" s="80" t="str">
         <f>FI_Process!F15</f>
         <v>Power Plant - Wind Tuebine</v>
       </c>
-      <c r="E11" s="107" t="str">
+      <c r="E11" s="80" t="str">
         <f>FI_Comm!E10</f>
         <v>WIND_ON</v>
       </c>
-      <c r="F11" s="107" t="str">
+      <c r="F11" s="80" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="80">
         <v>1</v>
       </c>
-      <c r="H11" s="107">
+      <c r="H11" s="80">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="107">
+      <c r="I11" s="80">
         <v>1</v>
       </c>
-      <c r="J11" s="107">
+      <c r="J11" s="80">
         <v>0.33</v>
       </c>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108">
+      <c r="K11" s="80"/>
+      <c r="L11" s="96">
         <v>1</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="O12" s="97">
+      <c r="M11" s="23"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+    </row>
+    <row r="12" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="O12" s="58">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
@@ -4954,10 +4896,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF049C56-8571-476E-80B4-2A2AA175E0B0}">
-  <dimension ref="B1:K6"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4968,135 +4910,139 @@
     <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="65" t="s">
+    <row r="2" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+    <row r="5" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="str">
+    <row r="6" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="89" t="str">
         <f>FI_Process!E17</f>
         <v>EX_ELC_GRID</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="89" t="str">
         <f>FI_Process!F17</f>
         <v>Existing Grid</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="89" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="89" t="str">
         <f>FI_Comm!E12</f>
         <v>ELC_LV</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="89"/>
+      <c r="G6" s="89">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="89">
         <v>0.88</v>
       </c>
-    </row>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5107,8 +5053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5137,88 +5083,88 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="82"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="86" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="53">
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="90" t="s">
+    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="73" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95" t="s">
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="80" t="str">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="44" t="str">
         <f>FI_Comm!E$13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="81">
+      <c r="E9" s="68"/>
+      <c r="F9" s="45">
         <f>100/GRID!H6</f>
         <v>113.63636363636364</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="80" t="str">
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="64" t="str">
         <f>FI_Comm!E$13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="78">
         <v>0</v>
       </c>
       <c r="H10">
@@ -5226,19 +5172,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="80" t="str">
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="44" t="str">
         <f>FI_Comm!E$13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="123">
+      <c r="F11" s="69">
         <v>0.05</v>
       </c>
       <c r="H11">
@@ -5246,19 +5192,19 @@
         <v>5.6818181818181825</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="80" t="str">
+    <row r="12" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="64" t="str">
         <f>FI_Comm!E$13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="78">
         <v>0.1</v>
       </c>
       <c r="H12">
@@ -5266,19 +5212,19 @@
         <v>11.363636363636365</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="80" t="str">
+    <row r="13" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="44" t="str">
         <f>FI_Comm!E$13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="123">
+      <c r="F13" s="69">
         <v>0.15</v>
       </c>
       <c r="H13">
@@ -5286,19 +5232,19 @@
         <v>17.045454545454547</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="80" t="str">
+    <row r="14" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="64" t="str">
         <f>FI_Comm!E$13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="123">
+      <c r="F14" s="78">
         <v>0.2</v>
       </c>
       <c r="H14">
@@ -5306,19 +5252,19 @@
         <v>22.72727272727273</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="80" t="str">
+    <row r="15" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="44" t="str">
         <f>FI_Comm!E$13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="123">
+      <c r="F15" s="69">
         <v>0.15</v>
       </c>
       <c r="H15">
@@ -5326,19 +5272,19 @@
         <v>17.045454545454547</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="80" t="str">
+    <row r="16" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="64" t="str">
         <f>FI_Comm!E$13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="123">
+      <c r="F16" s="78">
         <v>0.2</v>
       </c>
       <c r="H16">
@@ -5347,168 +5293,168 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="80" t="str">
+      <c r="B17" s="18"/>
+      <c r="C17" s="79" t="str">
         <f>FI_Comm!E$13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="123">
+      <c r="F17" s="81">
         <v>0.15</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
         <v>17.045454545454547</v>
       </c>
-      <c r="I17" s="124">
+      <c r="I17" s="67">
         <f>SUM(F10:F17)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+    <row r="18" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="65" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="56"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="67" t="s">
+      <c r="L22" s="41" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L23" s="69" t="s">
+      <c r="L23" s="43" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="79" t="s">
+      <c r="L24" s="50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="109" t="str">
+      <c r="C25" s="66" t="str">
         <f>FI_Process!E19</f>
         <v>DMD_FIN_ELC</v>
       </c>
-      <c r="D25" s="109" t="str">
+      <c r="D25" s="66" t="str">
         <f>FI_Process!F19</f>
         <v>Final electricity demand</v>
       </c>
-      <c r="E25" s="109" t="str">
+      <c r="E25" s="66" t="str">
         <f>FI_Comm!E12</f>
         <v>ELC_LV</v>
       </c>
-      <c r="F25" s="109" t="str">
+      <c r="F25" s="66" t="str">
         <f>FI_Comm!E13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109">
+      <c r="G25" s="66"/>
+      <c r="H25" s="66">
         <v>1</v>
       </c>
-      <c r="I25" s="109">
+      <c r="I25" s="66">
         <v>1</v>
       </c>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5517,6 +5463,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5711,7 +5666,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -5722,16 +5677,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5750,7 +5704,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5759,12 +5713,4 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>